--- a/Source/assets/sample_questions.xlsx
+++ b/Source/assets/sample_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web7-3\Source\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F42F906-CE55-4415-A42D-4341E6E48DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6AD62F-AE83-4940-93E2-553F08333987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tên mục</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Câu hỏi từng mục</t>
+  </si>
+  <si>
+    <t>Mục cha</t>
+  </si>
+  <si>
+    <t>mục 1</t>
+  </si>
+  <si>
+    <t>mục 2</t>
   </si>
 </sst>
 </file>
@@ -103,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,31 +422,41 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1"/>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -468,6 +490,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
